--- a/quantifyVagusNerve/Data/Supporting Files/Biological Information/Bio_info_demo.xlsx
+++ b/quantifyVagusNerve/Data/Supporting Files/Biological Information/Bio_info_demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanja\Documents\GitHub\quantifyVagusNerve\Data\Supporting Files\Biological Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanja\Documents\GitHub\spatial-neuro\quantifyVagusNerve\Data\Supporting Files\Biological Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BEA347-FF92-4F29-B377-622B2455A1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD58FC9-A975-4314-B005-78F2EC779E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>896-F1</t>
+  </si>
+  <si>
+    <t>Image_ID</t>
   </si>
 </sst>
 </file>
@@ -445,11 +448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +463,7 @@
     <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -479,8 +482,11 @@
       <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -499,8 +505,11 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -519,8 +528,11 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G3" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -539,8 +551,11 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -559,8 +574,11 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G5" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -578,6 +596,9 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
